--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\_TrainingMaterial\VEDA-Training\DemoS_012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B7052D-B7CA-4120-BF32-6D58CA11CCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AE1F2-5C8E-433D-974E-30B9418D9CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
     <sheet name="TimePeriods" sheetId="18" r:id="rId2"/>
-    <sheet name="Import Settings" sheetId="17" r:id="rId3"/>
-    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId4"/>
-    <sheet name="Constants" sheetId="20" r:id="rId5"/>
-    <sheet name="Defaults" sheetId="21" r:id="rId6"/>
-    <sheet name="Commodity Group" sheetId="15" r:id="rId7"/>
+    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId3"/>
+    <sheet name="Constants" sheetId="20" r:id="rId4"/>
+    <sheet name="Defaults" sheetId="21" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,71 +62,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Possible definitions
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Y </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">or a </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>positive number</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (mean apply this User CG in that region)
-Empty mean this User CG is not applied in that region</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -137,27 +74,12 @@
     <t>AllRegions</t>
   </si>
   <si>
-    <t>Other_Indexes</t>
-  </si>
-  <si>
     <t>ACTCOST</t>
   </si>
   <si>
     <t>IMPDEMZ</t>
   </si>
   <si>
-    <t>User-Defined CG</t>
-  </si>
-  <si>
-    <t>~TFM_COMGRP</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>~BookRegions_Map</t>
   </si>
   <si>
@@ -197,54 +119,18 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Pset_Set</t>
   </si>
   <si>
     <t>Pset_PN</t>
   </si>
   <si>
-    <t>Pset_CI</t>
-  </si>
-  <si>
-    <t>Pset_CO</t>
-  </si>
-  <si>
-    <t>Cset_Set</t>
-  </si>
-  <si>
     <t>Cset_CN</t>
   </si>
   <si>
-    <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>Pset_PD</t>
-  </si>
-  <si>
-    <t>~ImpSettings</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Check #DIV/0 and #REF errors in Templates</t>
-  </si>
-  <si>
-    <t>Create Dummy Imports for Energy and Material Commodities</t>
-  </si>
-  <si>
-    <t>Create Dummy Imports for Demands</t>
-  </si>
-  <si>
-    <t>Generate Vintage Bounds</t>
-  </si>
-  <si>
     <t>~StartYear</t>
   </si>
   <si>
@@ -254,15 +140,6 @@
     <t>Pdef-1</t>
   </si>
   <si>
-    <t>* Define the explicit commodity groups needed</t>
-  </si>
-  <si>
-    <t>\I:Commodity Group Name</t>
-  </si>
-  <si>
-    <t>Commodity Group Description</t>
-  </si>
-  <si>
     <t>Dummy Imp Prices</t>
   </si>
   <si>
@@ -386,9 +263,6 @@
     <t>Pdef-5</t>
   </si>
   <si>
-    <t>DumVarforUC</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
@@ -425,27 +299,100 @@
     <t>MEuro05</t>
   </si>
   <si>
-    <t>chkDoTAGSQC</t>
-  </si>
-  <si>
-    <t>UseSQLDatabase</t>
-  </si>
-  <si>
     <t>~TFM_MIG</t>
   </si>
   <si>
     <t>Year2</t>
+  </si>
+  <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>Billion Kwh</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>B Euro</t>
+  </si>
+  <si>
+    <t>M Euro</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>Twh</t>
+  </si>
+  <si>
+    <t>bEur</t>
+  </si>
+  <si>
+    <t>mEur</t>
+  </si>
+  <si>
+    <t>Eur per bbl</t>
+  </si>
+  <si>
+    <t>Eur per GJ</t>
+  </si>
+  <si>
+    <t>Eur per ton</t>
+  </si>
+  <si>
+    <t>mEur per kt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -477,19 +424,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -530,15 +464,8 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,12 +498,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF80"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,8 +520,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -779,29 +712,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -809,160 +729,154 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Migliaia_tab emissioni" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1755,183 +1669,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121943</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197ED2A0-BBD1-49C4-A542-35BAE0232C17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="161925" y="1943100"/>
-          <a:ext cx="5962650" cy="1419225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~ImpSettings </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>is used to define some settings</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> for the synchronization process</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Dummy Imports: one can control the creation of dummy imports in the table shown above. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>These backstop dummy processes are introduced in the model in order to avoid infeasibilities that may arise if not enough energy carrier or demand can be supplied.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Vintage Bounds: VEDA can automatically generate bounds to prohibit investments in processes when a newer vintage becomes available, assuming that the last two characters of the process name are used for the first year of availability . </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2239,8 +1976,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2308,7 +2045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2760,27 +2497,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B715DF75-4706-4833-AE28-56D30B52A69F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713B083B-9265-4403-9A33-4E2A3141D87C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,8 +2525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="323850"/>
-          <a:ext cx="5962650" cy="1171575"/>
+          <a:off x="5438775" y="323850"/>
+          <a:ext cx="5962650" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2931,6 +2668,108 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>- to define default units by activity, capacity and commodity for each sector in the model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>~UnitConversion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- enables unit conversion in the Results module. Use a common unit in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to_unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> to declare new conversions. For example, for a new energy unit, use PJ in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to_unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100" b="0">
             <a:solidFill>
@@ -3407,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3421,10 +3260,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3432,51 +3271,51 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="17" t="s">
-        <v>55</v>
+      <c r="B5" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>84</v>
+      <c r="B6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3629,7 +3468,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -3639,118 +3478,118 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>91</v>
+      <c r="B12" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12">
         <v>5</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12">
         <v>5</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
         <v>5</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
     </row>
@@ -3764,106 +3603,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:Q36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
@@ -3872,70 +3623,67 @@
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
       <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="20">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
@@ -3943,105 +3691,61 @@
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="B32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="5" t="s">
+    <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+      <c r="C36" s="6">
+        <v>2222</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6">
+        <v>8888</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
         <v>4</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>2222</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6">
-        <v>8888</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4053,124 +3757,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="12.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>19</v>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14">
         <v>2005</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14">
         <v>0.05</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="72">
+      <c r="B9" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="68">
         <f>C23</f>
         <v>0.24971461187214614</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="72">
+      <c r="B10" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="68">
         <f>D23</f>
         <v>0.22973744292237441</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="72">
+      <c r="B11" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="68">
         <f>E23</f>
         <v>0.24942922374429224</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="72">
+      <c r="B12" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="68">
         <f>F23</f>
         <v>0.27111872146118721</v>
       </c>
@@ -4178,265 +3884,265 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19">
+      <c r="D13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15">
         <v>0.9</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>0.95</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>62</v>
+      <c r="H13" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="B19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>67</v>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>71</v>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="36">
+      <c r="B23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="32">
         <f>C32/$F32*$E27</f>
         <v>0.24971461187214614</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="33">
         <f>D32/$F32*$E27</f>
         <v>0.22973744292237441</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="33">
         <f>C33/$F33*$E28</f>
         <v>0.24942922374429224</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="34">
         <f>D33/$F33*$E28</f>
         <v>0.27111872146118721</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="35">
         <f>SUM(C23:F23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="43"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="50">
+      <c r="B27" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="46">
         <v>175</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="47">
         <f>D27/D29</f>
         <v>0.47945205479452052</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="55">
+      <c r="B28" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="51">
         <f>365-D27</f>
         <v>190</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="52">
         <f>D28/D29</f>
         <v>0.52054794520547942</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="41"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="57">
+      <c r="B29" s="37"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="53">
         <f>SUM(D27:D28)</f>
         <v>365</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="54">
         <f>SUM(E27:E28)</f>
         <v>1</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="41"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="61"/>
-      <c r="C31" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="65">
+      <c r="B32" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="61">
         <v>12.5</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="62">
         <v>11.5</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="67">
+      <c r="E32" s="55"/>
+      <c r="F32" s="63">
         <f>SUM(C32:E32)</f>
         <v>24</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="69">
+      <c r="B33" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="65">
         <v>11.5</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="66">
         <v>12.5</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59">
+      <c r="E33" s="55"/>
+      <c r="F33" s="55">
         <f>SUM(C33:E33)</f>
         <v>24</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4447,11 +4153,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4465,206 +4173,320 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>95</v>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
-        <v>98</v>
+      <c r="B4" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>96</v>
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>97</v>
+        <v>33</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>96</v>
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="75">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="75">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="75">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="75">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="75">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="76">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="75">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="75">
+        <v>0.15384600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="75">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="75">
+        <v>37.681199999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="75">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="75">
+        <v>2.7777769999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="75">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="75">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:I7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="11" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="4" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>